--- a/biology/Zoologie/Sclerocephalus_haeuseri/Sclerocephalus_haeuseri.xlsx
+++ b/biology/Zoologie/Sclerocephalus_haeuseri/Sclerocephalus_haeuseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptorophus levis, Pelosaurus longiscutatus, Pfarrwaldia jeckenbachensis, Raumbachia compressa, Rehbornia klauswaldensis
 Sclerocephalus haeuseri est une espèce fossile d'amphibiens temnospondyles de la famille des Sclerocephalidae.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1847 par le paléontologue et zoologiste bavarois Georg August Goldfuss (1782-1848)[1].
-Synonymes
-Selon Paleobiology Database en 2022, cette espèce a cinq synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1847 par le paléontologue et zoologiste bavarois Georg August Goldfuss (1782-1848).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2022, cette espèce a cinq synonymes :
 Leptorophus levis Bulman, 1928
 Pelosaurus longiscutatus Théobald, 1958
 Pfarrwaldia jeckenbachensis Krätschmer, 2004 [synonyme objectif]
@@ -525,38 +574,110 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1958, le paléontologue Nicolas Théobald a publié la description de plusieurs spécimens de Stégocéphales, accompagnés de nombreux poissons Aeduella, trouvés dans les schistes bitumineux du Permien inférieur de St Wendel en Sarre. Parmi ces spécimens, Théobald à identifié deux individus qui semblaient distincts des stégocéphales déjà connus et il les a définis comme une nouvelle espèce qu'il a nommée Pelosaurus longiscatus[2]. Le spécimen W 2 faisant partie de la collection de géologie de l'Université de la Sarre est photographié ci-contre.
-Caractères
-Le genre Pelosaurus est un genre de stégocéphales, des vertébrés préhistoriques ressemblants à des salamandres. En 1958,le paléontologue Nicolas Théobald a décrit une nouvelle espèce de Pelosaurus, Pelosaurus longicatus. Les différences principales entre cette espèce et l'espèce déjà connue, Pelosaurus laticeps Credner (d), 1882, résidant dans la forme du postfrontal du crane et de l'épisternum ou interclavicule de la ceinture thoracique. Les dents de P. longiscatus sont également plissées presque jusqu'au sommet, contrairement à celles de Pelosaurus gumbeli Reis, 1913. surtout insisté sur les différences entre ses échantillons et l'espèce Pelosaurus laticeps Credner, 1882. 
-D'après Alfred Sherwood Romer (1947), les formes larvaires des genres Pelosaurus et Branchiosaurus sont présentes dans les mêmes couches que les stégocéphales du genre Sclerocephalus dans le Palatinat et la Sarre[3].
-Dimensions
-Pour l'échantillon W 2[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1958, le paléontologue Nicolas Théobald a publié la description de plusieurs spécimens de Stégocéphales, accompagnés de nombreux poissons Aeduella, trouvés dans les schistes bitumineux du Permien inférieur de St Wendel en Sarre. Parmi ces spécimens, Théobald à identifié deux individus qui semblaient distincts des stégocéphales déjà connus et il les a définis comme une nouvelle espèce qu'il a nommée Pelosaurus longiscatus. Le spécimen W 2 faisant partie de la collection de géologie de l'Université de la Sarre est photographié ci-contre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pelosaurus est un genre de stégocéphales, des vertébrés préhistoriques ressemblants à des salamandres. En 1958,le paléontologue Nicolas Théobald a décrit une nouvelle espèce de Pelosaurus, Pelosaurus longicatus. Les différences principales entre cette espèce et l'espèce déjà connue, Pelosaurus laticeps Credner (d), 1882, résidant dans la forme du postfrontal du crane et de l'épisternum ou interclavicule de la ceinture thoracique. Les dents de P. longiscatus sont également plissées presque jusqu'au sommet, contrairement à celles de Pelosaurus gumbeli Reis, 1913. surtout insisté sur les différences entre ses échantillons et l'espèce Pelosaurus laticeps Credner, 1882. 
+D'après Alfred Sherwood Romer (1947), les formes larvaires des genres Pelosaurus et Branchiosaurus sont présentes dans les mêmes couches que les stégocéphales du genre Sclerocephalus dans le Palatinat et la Sarre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour l'échantillon W 2 : 
 corps L=195 mm ; l=40 mm ;
 tête  L=50 mm ; l=50 mm ;
 orbite L=12 mm ; l=7 mm ;
@@ -568,64 +689,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu géologique au Permien était caractérisé par la présence de lacs en cours de remplissage[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu géologique au Permien était caractérisé par la présence de lacs en cours de remplissage.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sclerocephalus_haeuseri</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la base de données Paleobiology Database, l'espèce Pelosaurus longiscatus est représentée par vingt collections de fossiles trouvées en Allemagne.[1]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la base de données Paleobiology Database, l'espèce Pelosaurus longiscatus est représentée par vingt collections de fossiles trouvées en Allemagne.
 </t>
         </is>
       </c>
